--- a/Anemonefish List.xlsx
+++ b/Anemonefish List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>Vernacular name</t>
   </si>
@@ -77,6 +77,147 @@
   </si>
   <si>
     <t>Amphiprion sandaracinos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skunk Clownfish
+Skunk clownfish - FishBase
+Skunk clownfish - FishBase
+</t>
+  </si>
+  <si>
+    <t>Amphiprion akallopisos</t>
+  </si>
+  <si>
+    <t>Oman Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion omanensis</t>
+  </si>
+  <si>
+    <t>Barrier Reef Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion akindynos</t>
+  </si>
+  <si>
+    <t>Allard's Clownfish</t>
+  </si>
+  <si>
+    <t>Amphiprion allardi</t>
+  </si>
+  <si>
+    <t>Barberi Clownfish</t>
+  </si>
+  <si>
+    <t>Amphiprion barberi</t>
+  </si>
+  <si>
+    <t>Red Sea Clownfish</t>
+  </si>
+  <si>
+    <t>Amphiprion bicinctus</t>
+  </si>
+  <si>
+    <t>Chagos Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion chagosensis</t>
+  </si>
+  <si>
+    <t>Mauritian Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion chrysogaster</t>
+  </si>
+  <si>
+    <t>Orange-fin Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion chrysopterus</t>
+  </si>
+  <si>
+    <t>Red Saddleback Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion ephippium</t>
+  </si>
+  <si>
+    <t>Seychelles Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion fuscocaudatus</t>
+  </si>
+  <si>
+    <t>Wide-band Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion latezonatus</t>
+  </si>
+  <si>
+    <t>Madagascar Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion latifasciatus</t>
+  </si>
+  <si>
+    <t>White Bonnet Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion leucokranos</t>
+  </si>
+  <si>
+    <t>McCulloch's Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion mccullochi</t>
+  </si>
+  <si>
+    <t>Fire Clownfish</t>
+  </si>
+  <si>
+    <t>Amphiprion melanopus</t>
+  </si>
+  <si>
+    <t>Maldive Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion nigripes</t>
+  </si>
+  <si>
+    <t>Orange Clownfish</t>
+  </si>
+  <si>
+    <t>Amphiprion percula</t>
+  </si>
+  <si>
+    <t>Red Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion rubrocinctus</t>
+  </si>
+  <si>
+    <t>Sebae Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion sebae</t>
+  </si>
+  <si>
+    <t>Three-band Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion tricinctus</t>
+  </si>
+  <si>
+    <t>Maroon Clownfish</t>
+  </si>
+  <si>
+    <t>Premnas biaculeatus</t>
+  </si>
+  <si>
+    <t>Pacific Anemonefish</t>
+  </si>
+  <si>
+    <t>Amphiprion pacificus</t>
   </si>
 </sst>
 </file>
@@ -135,12 +276,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -448,21 +592,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,10 +729,424 @@
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
+      <c r="E7" s="3">
+        <v>3</v>
       </c>
       <c r="F7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
